--- a/medicine/Premiers secours et secourisme/Journée_internationale_de_la_protection_civile/Journée_internationale_de_la_protection_civile.xlsx
+++ b/medicine/Premiers secours et secourisme/Journée_internationale_de_la_protection_civile/Journée_internationale_de_la_protection_civile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_la_protection_civile</t>
+          <t>Journée_internationale_de_la_protection_civile</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La journée internationale de la protection civile est une journée internationale ayant pour but de mieux faire connaître les missions de la protection civile auprès du grand public[1].
+La journée internationale de la protection civile est une journée internationale ayant pour but de mieux faire connaître les missions de la protection civile auprès du grand public.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_la_protection_civile</t>
+          <t>Journée_internationale_de_la_protection_civile</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Créée par l'Organisation Internationale de Protection Civile en 1990, cette journée commémore depuis 1991 l'entrée en vigueur de la Constitution de l’OIPC en tant qu’organisation intergouvernementale visant à contribuer à la « mise en place par les états de mesures et d'organisations propres à assurer la protection et l'assistance aux populations face aux catastrophes naturelles et celles dues à l'homme ».
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Journ%C3%A9e_internationale_de_la_protection_civile</t>
+          <t>Journée_internationale_de_la_protection_civile</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les objectifs de cette journée sont[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Les objectifs de cette journée sont :
 sensibiliser le public sur le rôle de la protection civile au quotidien ;
 aider les populations à mieux se préparer aux catastrophes naturelles.</t>
         </is>
